--- a/biology/Médecine/Nafi_ibn_al-Harith/Nafi_ibn_al-Harith.xlsx
+++ b/biology/Médecine/Nafi_ibn_al-Harith/Nafi_ibn_al-Harith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nafi ibn al-Harith bin Kalada al-Thaqafi (en arabe : نافع بن الحارث بن كلدة الثقف), mort en 670, est un médecin arabe de la tribu de Banu Thaqif.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Al Harith Ibn Kalada et le demi-frère de Nufay ibn al-Harith.
 Il a été recommandé par Mahomet et a entre autres traité Sa`d ibn Abi Waqqas, et il diagnostique que Abou Bakr As-Siddiq a été empoisonné alors qu'il était sur son lit de mort.
-Entrainé au Yémen[1], il a supposément écrit un livre nommé Dialogue dans la médecine. Il a été médecin en chef et professeur à l'Académie de Gundishapur en Perse.
+Entrainé au Yémen, il a supposément écrit un livre nommé Dialogue dans la médecine. Il a été médecin en chef et professeur à l'Académie de Gundishapur en Perse.
 </t>
         </is>
       </c>
